--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:00:02+00:00</t>
+    <t>2022-05-03T18:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:15:57+00:00</t>
+    <t>2022-05-03T18:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:29:57+00:00</t>
+    <t>2022-05-03T18:30:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:30:43+00:00</t>
+    <t>2022-05-03T19:20:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:20:08+00:00</t>
+    <t>2022-05-03T19:37:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:37:02+00:00</t>
+    <t>2022-05-03T19:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:45:57+00:00</t>
+    <t>2022-05-03T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:46:06+00:00</t>
+    <t>2022-05-04T13:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
